--- a/PTS2022-data/2011_County-level_ASRH.xlsx
+++ b/PTS2022-data/2011_County-level_ASRH.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yaleedu-my.sharepoint.com/personal/mary_ryan_yale_edu/Documents/Desktop/personal-code/pathwaysToScience-2022/PTS2022-data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_2DD3B45932D0B31BDDEC312EF6CB8BAD3B9487B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A69D385-14E4-46C1-819F-1552DDC42DDF}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CT 2011 ASRH County" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,19 @@
     <definedName name="IDX" localSheetId="0">'CT 2011 ASRH County'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CT 2011 ASRH County'!$A$1:$U$169</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -231,7 +249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1480,62 +1498,6 @@
     <xf numFmtId="3" fontId="26" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1554,6 +1516,62 @@
     </xf>
     <xf numFmtId="3" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1607,6 +1625,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1654,7 +1675,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1687,9 +1708,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1722,6 +1760,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1897,14 +1952,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U168"/>
+  <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="V139" sqref="V139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,32 +1987,32 @@
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-    </row>
-    <row r="2" spans="1:21" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+    </row>
+    <row r="2" spans="1:22" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
@@ -1980,77 +2035,77 @@
       <c r="T2" s="18"/>
       <c r="U2" s="17"/>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60" t="s">
+    <row r="3" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="60" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="57" t="s">
+    <row r="4" spans="1:22" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54" t="s">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54" t="s">
+      <c r="M4" s="50"/>
+      <c r="N4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54" t="s">
+      <c r="O4" s="50"/>
+      <c r="P4" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54" t="s">
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="54"/>
-      <c r="T4" s="52" t="s">
+      <c r="S4" s="50"/>
+      <c r="T4" s="56" t="s">
         <v>35</v>
       </c>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
@@ -2081,7 +2136,7 @@
       <c r="J5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="56"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="10" t="s">
         <v>38</v>
       </c>
@@ -2106,13 +2161,13 @@
       <c r="S5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="53"/>
+      <c r="T5" s="57"/>
       <c r="U5" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="52" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -2175,9 +2230,13 @@
       <c r="U6" s="41">
         <v>10457</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+      <c r="V6" s="18">
+        <f>SUM(U6:U24)</f>
+        <v>925899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="52"/>
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
@@ -2239,8 +2298,8 @@
         <v>45511</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+    <row r="8" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
       <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
@@ -2302,8 +2361,8 @@
         <v>62731</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
+    <row r="9" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="52"/>
       <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
@@ -2365,8 +2424,8 @@
         <v>66581</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
+    <row r="10" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="52"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
@@ -2428,8 +2487,8 @@
         <v>64615</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="52"/>
       <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
@@ -2491,8 +2550,8 @@
         <v>50072</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
@@ -2554,8 +2613,8 @@
         <v>53011</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="52"/>
       <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
@@ -2617,8 +2676,8 @@
         <v>55050</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+    <row r="14" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
       <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
@@ -2680,8 +2739,8 @@
         <v>58270</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="52"/>
       <c r="B15" s="14" t="s">
         <v>11</v>
       </c>
@@ -2743,8 +2802,8 @@
         <v>70425</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
       <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
@@ -2806,8 +2865,8 @@
         <v>76698</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="52"/>
       <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
@@ -2869,8 +2928,8 @@
         <v>73646</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+    <row r="18" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="52"/>
       <c r="B18" s="14" t="s">
         <v>14</v>
       </c>
@@ -2932,8 +2991,8 @@
         <v>61565</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
       <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
@@ -2995,8 +3054,8 @@
         <v>50602</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
+    <row r="20" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
       <c r="B20" s="14" t="s">
         <v>16</v>
       </c>
@@ -3058,8 +3117,8 @@
         <v>37573</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
+    <row r="21" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="52"/>
       <c r="B21" s="14" t="s">
         <v>17</v>
       </c>
@@ -3121,8 +3180,8 @@
         <v>26842</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
       <c r="B22" s="14" t="s">
         <v>18</v>
       </c>
@@ -3184,8 +3243,8 @@
         <v>21821</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
+    <row r="23" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="52"/>
       <c r="B23" s="14" t="s">
         <v>19</v>
       </c>
@@ -3247,8 +3306,8 @@
         <v>19294</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+    <row r="24" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
       <c r="B24" s="14" t="s">
         <v>20</v>
       </c>
@@ -3310,8 +3369,8 @@
         <v>21135</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+    <row r="25" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="51" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -3374,9 +3433,13 @@
       <c r="U25" s="42">
         <v>9639</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
+      <c r="V25" s="18">
+        <f>SUM(U25:U43)</f>
+        <v>894705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
       <c r="B26" s="14" t="s">
         <v>3</v>
       </c>
@@ -3438,8 +3501,8 @@
         <v>40131</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
       <c r="B27" s="14" t="s">
         <v>4</v>
       </c>
@@ -3501,8 +3564,8 @@
         <v>54774</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
+    <row r="28" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
       <c r="B28" s="14" t="s">
         <v>5</v>
       </c>
@@ -3564,8 +3627,8 @@
         <v>59214</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
+    <row r="29" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="52"/>
       <c r="B29" s="14" t="s">
         <v>6</v>
       </c>
@@ -3627,8 +3690,8 @@
         <v>61402</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
+    <row r="30" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="52"/>
       <c r="B30" s="14" t="s">
         <v>7</v>
       </c>
@@ -3690,8 +3753,8 @@
         <v>55670</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
+    <row r="31" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="52"/>
       <c r="B31" s="14" t="s">
         <v>8</v>
       </c>
@@ -3753,8 +3816,8 @@
         <v>57724</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
+    <row r="32" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
       <c r="B32" s="14" t="s">
         <v>9</v>
       </c>
@@ -3816,8 +3879,8 @@
         <v>54221</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
+    <row r="33" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
       <c r="B33" s="14" t="s">
         <v>10</v>
       </c>
@@ -3879,8 +3942,8 @@
         <v>53066</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
+    <row r="34" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="52"/>
       <c r="B34" s="14" t="s">
         <v>11</v>
       </c>
@@ -3942,8 +4005,8 @@
         <v>62073</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
+    <row r="35" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="52"/>
       <c r="B35" s="14" t="s">
         <v>12</v>
       </c>
@@ -4005,8 +4068,8 @@
         <v>69625</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+    <row r="36" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="52"/>
       <c r="B36" s="14" t="s">
         <v>13</v>
       </c>
@@ -4068,8 +4131,8 @@
         <v>70463</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
+    <row r="37" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="52"/>
       <c r="B37" s="14" t="s">
         <v>14</v>
       </c>
@@ -4131,8 +4194,8 @@
         <v>61859</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
+    <row r="38" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="52"/>
       <c r="B38" s="14" t="s">
         <v>15</v>
       </c>
@@ -4194,8 +4257,8 @@
         <v>53077</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
+    <row r="39" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="52"/>
       <c r="B39" s="14" t="s">
         <v>16</v>
       </c>
@@ -4257,8 +4320,8 @@
         <v>38260</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
+    <row r="40" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="52"/>
       <c r="B40" s="14" t="s">
         <v>17</v>
       </c>
@@ -4320,8 +4383,8 @@
         <v>27341</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
+    <row r="41" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="52"/>
       <c r="B41" s="14" t="s">
         <v>18</v>
       </c>
@@ -4383,8 +4446,8 @@
         <v>22780</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
+    <row r="42" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="52"/>
       <c r="B42" s="14" t="s">
         <v>19</v>
       </c>
@@ -4446,8 +4509,8 @@
         <v>20057</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
+    <row r="43" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="53"/>
       <c r="B43" s="14" t="s">
         <v>20</v>
       </c>
@@ -4509,8 +4572,8 @@
         <v>23329</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="46" t="s">
+    <row r="44" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="51" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -4573,9 +4636,13 @@
       <c r="U44" s="42">
         <v>1530</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
+      <c r="V44" s="18">
+        <f>SUM(U44:U62)</f>
+        <v>188789</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="52"/>
       <c r="B45" s="14" t="s">
         <v>3</v>
       </c>
@@ -4637,8 +4704,8 @@
         <v>7119</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
+    <row r="46" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="52"/>
       <c r="B46" s="14" t="s">
         <v>4</v>
       </c>
@@ -4700,8 +4767,8 @@
         <v>10619</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
+    <row r="47" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="52"/>
       <c r="B47" s="14" t="s">
         <v>5</v>
       </c>
@@ -4763,8 +4830,8 @@
         <v>12324</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
+    <row r="48" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="52"/>
       <c r="B48" s="14" t="s">
         <v>6</v>
       </c>
@@ -4826,8 +4893,8 @@
         <v>12195</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
+    <row r="49" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="52"/>
       <c r="B49" s="14" t="s">
         <v>7</v>
       </c>
@@ -4889,8 +4956,8 @@
         <v>8938</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="47"/>
+    <row r="50" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="52"/>
       <c r="B50" s="14" t="s">
         <v>8</v>
       </c>
@@ -4952,8 +5019,8 @@
         <v>8702</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="47"/>
+    <row r="51" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="52"/>
       <c r="B51" s="14" t="s">
         <v>9</v>
       </c>
@@ -5015,8 +5082,8 @@
         <v>9049</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="47"/>
+    <row r="52" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="52"/>
       <c r="B52" s="14" t="s">
         <v>10</v>
       </c>
@@ -5078,8 +5145,8 @@
         <v>9965</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="47"/>
+    <row r="53" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="52"/>
       <c r="B53" s="14" t="s">
         <v>11</v>
       </c>
@@ -5141,8 +5208,8 @@
         <v>14017</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
+    <row r="54" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="52"/>
       <c r="B54" s="14" t="s">
         <v>12</v>
       </c>
@@ -5204,8 +5271,8 @@
         <v>16412</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
+    <row r="55" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="52"/>
       <c r="B55" s="14" t="s">
         <v>13</v>
       </c>
@@ -5267,8 +5334,8 @@
         <v>17556</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="47"/>
+    <row r="56" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="52"/>
       <c r="B56" s="14" t="s">
         <v>14</v>
       </c>
@@ -5330,8 +5397,8 @@
         <v>15801</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="47"/>
+    <row r="57" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="52"/>
       <c r="B57" s="14" t="s">
         <v>15</v>
       </c>
@@ -5393,8 +5460,8 @@
         <v>13570</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
+    <row r="58" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="52"/>
       <c r="B58" s="14" t="s">
         <v>16</v>
       </c>
@@ -5456,8 +5523,8 @@
         <v>9787</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="47"/>
+    <row r="59" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="52"/>
       <c r="B59" s="14" t="s">
         <v>17</v>
       </c>
@@ -5519,8 +5586,8 @@
         <v>6751</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="47"/>
+    <row r="60" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="52"/>
       <c r="B60" s="14" t="s">
         <v>18</v>
       </c>
@@ -5582,8 +5649,8 @@
         <v>5142</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="47"/>
+    <row r="61" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="52"/>
       <c r="B61" s="14" t="s">
         <v>19</v>
       </c>
@@ -5645,8 +5712,8 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="48"/>
+    <row r="62" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="53"/>
       <c r="B62" s="14" t="s">
         <v>20</v>
       </c>
@@ -5708,8 +5775,8 @@
         <v>4932</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="46" t="s">
+    <row r="63" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="51" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -5772,9 +5839,13 @@
       <c r="U63" s="42">
         <v>1474</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="47"/>
+      <c r="V63" s="18">
+        <f>SUM(U63:U81)</f>
+        <v>166043</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="52"/>
       <c r="B64" s="14" t="s">
         <v>3</v>
       </c>
@@ -5837,7 +5908,7 @@
       </c>
     </row>
     <row r="65" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="47"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="14" t="s">
         <v>4</v>
       </c>
@@ -5900,7 +5971,7 @@
       </c>
     </row>
     <row r="66" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="47"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="14" t="s">
         <v>5</v>
       </c>
@@ -5963,7 +6034,7 @@
       </c>
     </row>
     <row r="67" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="47"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="14" t="s">
         <v>6</v>
       </c>
@@ -6026,7 +6097,7 @@
       </c>
     </row>
     <row r="68" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="47"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -6089,7 +6160,7 @@
       </c>
     </row>
     <row r="69" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="47"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -6152,7 +6223,7 @@
       </c>
     </row>
     <row r="70" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="47"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -6215,7 +6286,7 @@
       </c>
     </row>
     <row r="71" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="47"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -6278,7 +6349,7 @@
       </c>
     </row>
     <row r="72" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="47"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -6341,7 +6412,7 @@
       </c>
     </row>
     <row r="73" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="47"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -6404,7 +6475,7 @@
       </c>
     </row>
     <row r="74" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="47"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -6467,7 +6538,7 @@
       </c>
     </row>
     <row r="75" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="47"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -6530,7 +6601,7 @@
       </c>
     </row>
     <row r="76" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="47"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -6593,7 +6664,7 @@
       </c>
     </row>
     <row r="77" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="47"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -6656,7 +6727,7 @@
       </c>
     </row>
     <row r="78" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="47"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="14" t="s">
         <v>17</v>
       </c>
@@ -6719,7 +6790,7 @@
       </c>
     </row>
     <row r="79" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="47"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="14" t="s">
         <v>18</v>
       </c>
@@ -6782,7 +6853,7 @@
       </c>
     </row>
     <row r="80" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="47"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="14" t="s">
         <v>19</v>
       </c>
@@ -6844,8 +6915,8 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="48"/>
+    <row r="81" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="53"/>
       <c r="B81" s="14" t="s">
         <v>20</v>
       </c>
@@ -6907,8 +6978,8 @@
         <v>4242</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="46" t="s">
+    <row r="82" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="51" t="s">
         <v>24</v>
       </c>
       <c r="B82" s="14" t="s">
@@ -6971,9 +7042,13 @@
       <c r="U82" s="42">
         <v>9151</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="47"/>
+      <c r="V82" s="18">
+        <f>SUM(U82:U100)</f>
+        <v>861113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="52"/>
       <c r="B83" s="14" t="s">
         <v>3</v>
       </c>
@@ -7035,8 +7110,8 @@
         <v>38272</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="47"/>
+    <row r="84" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="52"/>
       <c r="B84" s="14" t="s">
         <v>4</v>
       </c>
@@ -7098,8 +7173,8 @@
         <v>50944</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="47"/>
+    <row r="85" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="52"/>
       <c r="B85" s="14" t="s">
         <v>5</v>
       </c>
@@ -7161,8 +7236,8 @@
         <v>55474</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="47"/>
+    <row r="86" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="52"/>
       <c r="B86" s="14" t="s">
         <v>6</v>
       </c>
@@ -7224,8 +7299,8 @@
         <v>61662</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="47"/>
+    <row r="87" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="52"/>
       <c r="B87" s="14" t="s">
         <v>7</v>
       </c>
@@ -7287,8 +7362,8 @@
         <v>58944</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="47"/>
+    <row r="88" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="52"/>
       <c r="B88" s="14" t="s">
         <v>8</v>
       </c>
@@ -7350,8 +7425,8 @@
         <v>57213</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="47"/>
+    <row r="89" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="52"/>
       <c r="B89" s="14" t="s">
         <v>9</v>
       </c>
@@ -7413,8 +7488,8 @@
         <v>52556</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="47"/>
+    <row r="90" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="52"/>
       <c r="B90" s="14" t="s">
         <v>10</v>
       </c>
@@ -7476,8 +7551,8 @@
         <v>50169</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="47"/>
+    <row r="91" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="52"/>
       <c r="B91" s="14" t="s">
         <v>11</v>
       </c>
@@ -7539,8 +7614,8 @@
         <v>60044</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="47"/>
+    <row r="92" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="52"/>
       <c r="B92" s="14" t="s">
         <v>12</v>
       </c>
@@ -7602,8 +7677,8 @@
         <v>64802</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="47"/>
+    <row r="93" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="52"/>
       <c r="B93" s="14" t="s">
         <v>13</v>
       </c>
@@ -7665,8 +7740,8 @@
         <v>66768</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="47"/>
+    <row r="94" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="52"/>
       <c r="B94" s="14" t="s">
         <v>14</v>
       </c>
@@ -7728,8 +7803,8 @@
         <v>58464</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="47"/>
+    <row r="95" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="52"/>
       <c r="B95" s="14" t="s">
         <v>15</v>
       </c>
@@ -7791,8 +7866,8 @@
         <v>51095</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="47"/>
+    <row r="96" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="52"/>
       <c r="B96" s="14" t="s">
         <v>16</v>
       </c>
@@ -7854,8 +7929,8 @@
         <v>37087</v>
       </c>
     </row>
-    <row r="97" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="47"/>
+    <row r="97" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="52"/>
       <c r="B97" s="14" t="s">
         <v>17</v>
       </c>
@@ -7917,8 +7992,8 @@
         <v>25605</v>
       </c>
     </row>
-    <row r="98" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="47"/>
+    <row r="98" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="52"/>
       <c r="B98" s="14" t="s">
         <v>18</v>
       </c>
@@ -7980,8 +8055,8 @@
         <v>21322</v>
       </c>
     </row>
-    <row r="99" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="47"/>
+    <row r="99" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="52"/>
       <c r="B99" s="14" t="s">
         <v>19</v>
       </c>
@@ -8043,8 +8118,8 @@
         <v>19021</v>
       </c>
     </row>
-    <row r="100" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="48"/>
+    <row r="100" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="53"/>
       <c r="B100" s="14" t="s">
         <v>20</v>
       </c>
@@ -8106,8 +8181,8 @@
         <v>22520</v>
       </c>
     </row>
-    <row r="101" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="46" t="s">
+    <row r="101" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B101" s="14" t="s">
@@ -8170,9 +8245,13 @@
       <c r="U101" s="42">
         <v>2721</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="47"/>
+      <c r="V101" s="18">
+        <f>SUM(U101:U119)</f>
+        <v>273502</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="52"/>
       <c r="B102" s="14" t="s">
         <v>3</v>
       </c>
@@ -8234,8 +8313,8 @@
         <v>11686</v>
       </c>
     </row>
-    <row r="103" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="47"/>
+    <row r="103" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="52"/>
       <c r="B103" s="14" t="s">
         <v>4</v>
       </c>
@@ -8297,8 +8376,8 @@
         <v>15768</v>
       </c>
     </row>
-    <row r="104" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="47"/>
+    <row r="104" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="52"/>
       <c r="B104" s="14" t="s">
         <v>5</v>
       </c>
@@ -8360,8 +8439,8 @@
         <v>16842</v>
       </c>
     </row>
-    <row r="105" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="47"/>
+    <row r="105" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="52"/>
       <c r="B105" s="14" t="s">
         <v>6</v>
       </c>
@@ -8423,8 +8502,8 @@
         <v>18701</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="47"/>
+    <row r="106" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="52"/>
       <c r="B106" s="14" t="s">
         <v>7</v>
       </c>
@@ -8486,8 +8565,8 @@
         <v>19496</v>
       </c>
     </row>
-    <row r="107" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="47"/>
+    <row r="107" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="52"/>
       <c r="B107" s="14" t="s">
         <v>8</v>
       </c>
@@ -8549,8 +8628,8 @@
         <v>17445</v>
       </c>
     </row>
-    <row r="108" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="47"/>
+    <row r="108" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="52"/>
       <c r="B108" s="14" t="s">
         <v>9</v>
       </c>
@@ -8612,8 +8691,8 @@
         <v>15664</v>
       </c>
     </row>
-    <row r="109" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="47"/>
+    <row r="109" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="52"/>
       <c r="B109" s="14" t="s">
         <v>10</v>
       </c>
@@ -8675,8 +8754,8 @@
         <v>15427</v>
       </c>
     </row>
-    <row r="110" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="47"/>
+    <row r="110" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="52"/>
       <c r="B110" s="14" t="s">
         <v>11</v>
       </c>
@@ -8738,8 +8817,8 @@
         <v>19142</v>
       </c>
     </row>
-    <row r="111" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="47"/>
+    <row r="111" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="52"/>
       <c r="B111" s="14" t="s">
         <v>12</v>
       </c>
@@ -8801,8 +8880,8 @@
         <v>21807</v>
       </c>
     </row>
-    <row r="112" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="47"/>
+    <row r="112" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="52"/>
       <c r="B112" s="14" t="s">
         <v>13</v>
       </c>
@@ -8864,8 +8943,8 @@
         <v>22538</v>
       </c>
     </row>
-    <row r="113" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="47"/>
+    <row r="113" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="52"/>
       <c r="B113" s="14" t="s">
         <v>14</v>
       </c>
@@ -8927,8 +9006,8 @@
         <v>19649</v>
       </c>
     </row>
-    <row r="114" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="47"/>
+    <row r="114" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="52"/>
       <c r="B114" s="14" t="s">
         <v>15</v>
       </c>
@@ -8990,8 +9069,8 @@
         <v>16740</v>
       </c>
     </row>
-    <row r="115" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="47"/>
+    <row r="115" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="52"/>
       <c r="B115" s="14" t="s">
         <v>16</v>
       </c>
@@ -9053,8 +9132,8 @@
         <v>12556</v>
       </c>
     </row>
-    <row r="116" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="47"/>
+    <row r="116" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="52"/>
       <c r="B116" s="14" t="s">
         <v>17</v>
       </c>
@@ -9116,8 +9195,8 @@
         <v>8631</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="47"/>
+    <row r="117" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="52"/>
       <c r="B117" s="14" t="s">
         <v>18</v>
       </c>
@@ -9179,8 +9258,8 @@
         <v>6854</v>
       </c>
     </row>
-    <row r="118" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="47"/>
+    <row r="118" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="52"/>
       <c r="B118" s="14" t="s">
         <v>19</v>
       </c>
@@ -9242,8 +9321,8 @@
         <v>5770</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="48"/>
+    <row r="119" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="53"/>
       <c r="B119" s="14" t="s">
         <v>20</v>
       </c>
@@ -9305,8 +9384,8 @@
         <v>6065</v>
       </c>
     </row>
-    <row r="120" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="46" t="s">
+    <row r="120" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B120" s="14" t="s">
@@ -9369,9 +9448,13 @@
       <c r="U120" s="42">
         <v>1193</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="47"/>
+      <c r="V120" s="18">
+        <f>SUM(U120:U138)</f>
+        <v>152507</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="52"/>
       <c r="B121" s="14" t="s">
         <v>3</v>
       </c>
@@ -9433,8 +9516,8 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="122" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="47"/>
+    <row r="122" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="52"/>
       <c r="B122" s="14" t="s">
         <v>4</v>
       </c>
@@ -9496,8 +9579,8 @@
         <v>8122</v>
       </c>
     </row>
-    <row r="123" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="47"/>
+    <row r="123" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="52"/>
       <c r="B123" s="14" t="s">
         <v>5</v>
       </c>
@@ -9559,8 +9642,8 @@
         <v>9303</v>
       </c>
     </row>
-    <row r="124" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="47"/>
+    <row r="124" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="52"/>
       <c r="B124" s="14" t="s">
         <v>6</v>
       </c>
@@ -9622,8 +9705,8 @@
         <v>14651</v>
       </c>
     </row>
-    <row r="125" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="47"/>
+    <row r="125" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="52"/>
       <c r="B125" s="14" t="s">
         <v>7</v>
       </c>
@@ -9685,8 +9768,8 @@
         <v>16647</v>
       </c>
     </row>
-    <row r="126" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="47"/>
+    <row r="126" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="52"/>
       <c r="B126" s="14" t="s">
         <v>8</v>
       </c>
@@ -9748,8 +9831,8 @@
         <v>8049</v>
       </c>
     </row>
-    <row r="127" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="47"/>
+    <row r="127" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="52"/>
       <c r="B127" s="14" t="s">
         <v>9</v>
       </c>
@@ -9811,8 +9894,8 @@
         <v>7633</v>
       </c>
     </row>
-    <row r="128" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="47"/>
+    <row r="128" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="52"/>
       <c r="B128" s="14" t="s">
         <v>10</v>
       </c>
@@ -9874,8 +9957,8 @@
         <v>8103</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="47"/>
+    <row r="129" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="52"/>
       <c r="B129" s="14" t="s">
         <v>11</v>
       </c>
@@ -9937,8 +10020,8 @@
         <v>10597</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="47"/>
+    <row r="130" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="52"/>
       <c r="B130" s="14" t="s">
         <v>12</v>
       </c>
@@ -10000,8 +10083,8 @@
         <v>12150</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="47"/>
+    <row r="131" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="52"/>
       <c r="B131" s="14" t="s">
         <v>13</v>
       </c>
@@ -10063,8 +10146,8 @@
         <v>12566</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="47"/>
+    <row r="132" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="52"/>
       <c r="B132" s="14" t="s">
         <v>14</v>
       </c>
@@ -10126,8 +10209,8 @@
         <v>10647</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="47"/>
+    <row r="133" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="52"/>
       <c r="B133" s="14" t="s">
         <v>15</v>
       </c>
@@ -10189,8 +10272,8 @@
         <v>8674</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="47"/>
+    <row r="134" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="52"/>
       <c r="B134" s="14" t="s">
         <v>16</v>
       </c>
@@ -10252,8 +10335,8 @@
         <v>6442</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="47"/>
+    <row r="135" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="52"/>
       <c r="B135" s="14" t="s">
         <v>17</v>
       </c>
@@ -10315,8 +10398,8 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="47"/>
+    <row r="136" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="52"/>
       <c r="B136" s="14" t="s">
         <v>18</v>
       </c>
@@ -10378,8 +10461,8 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="47"/>
+    <row r="137" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="52"/>
       <c r="B137" s="14" t="s">
         <v>19</v>
       </c>
@@ -10441,8 +10524,8 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="48"/>
+    <row r="138" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="53"/>
       <c r="B138" s="14" t="s">
         <v>20</v>
       </c>
@@ -10504,8 +10587,8 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="139" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="46" t="s">
+    <row r="139" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="51" t="s">
         <v>27</v>
       </c>
       <c r="B139" s="14" t="s">
@@ -10568,9 +10651,13 @@
       <c r="U139" s="42">
         <v>1153</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="47"/>
+      <c r="V139" s="18">
+        <f>SUM(U139:U157)</f>
+        <v>118151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="52"/>
       <c r="B140" s="14" t="s">
         <v>3</v>
       </c>
@@ -10632,8 +10719,8 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="47"/>
+    <row r="141" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="52"/>
       <c r="B141" s="14" t="s">
         <v>4</v>
       </c>
@@ -10695,8 +10782,8 @@
         <v>7025</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="47"/>
+    <row r="142" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="52"/>
       <c r="B142" s="14" t="s">
         <v>5</v>
       </c>
@@ -10758,8 +10845,8 @@
         <v>7482</v>
       </c>
     </row>
-    <row r="143" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="47"/>
+    <row r="143" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="52"/>
       <c r="B143" s="14" t="s">
         <v>6</v>
       </c>
@@ -10821,8 +10908,8 @@
         <v>8930</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="47"/>
+    <row r="144" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="52"/>
       <c r="B144" s="14" t="s">
         <v>7</v>
       </c>
@@ -10885,7 +10972,7 @@
       </c>
     </row>
     <row r="145" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="47"/>
+      <c r="A145" s="52"/>
       <c r="B145" s="14" t="s">
         <v>8</v>
       </c>
@@ -10948,7 +11035,7 @@
       </c>
     </row>
     <row r="146" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="47"/>
+      <c r="A146" s="52"/>
       <c r="B146" s="14" t="s">
         <v>9</v>
       </c>
@@ -11011,7 +11098,7 @@
       </c>
     </row>
     <row r="147" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="47"/>
+      <c r="A147" s="52"/>
       <c r="B147" s="14" t="s">
         <v>10</v>
       </c>
@@ -11074,7 +11161,7 @@
       </c>
     </row>
     <row r="148" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="47"/>
+      <c r="A148" s="52"/>
       <c r="B148" s="14" t="s">
         <v>11</v>
       </c>
@@ -11137,7 +11224,7 @@
       </c>
     </row>
     <row r="149" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="47"/>
+      <c r="A149" s="52"/>
       <c r="B149" s="14" t="s">
         <v>12</v>
       </c>
@@ -11200,7 +11287,7 @@
       </c>
     </row>
     <row r="150" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="47"/>
+      <c r="A150" s="52"/>
       <c r="B150" s="14" t="s">
         <v>13</v>
       </c>
@@ -11263,7 +11350,7 @@
       </c>
     </row>
     <row r="151" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="47"/>
+      <c r="A151" s="52"/>
       <c r="B151" s="14" t="s">
         <v>14</v>
       </c>
@@ -11326,7 +11413,7 @@
       </c>
     </row>
     <row r="152" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="47"/>
+      <c r="A152" s="52"/>
       <c r="B152" s="14" t="s">
         <v>15</v>
       </c>
@@ -11389,7 +11476,7 @@
       </c>
     </row>
     <row r="153" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="47"/>
+      <c r="A153" s="52"/>
       <c r="B153" s="14" t="s">
         <v>16</v>
       </c>
@@ -11452,7 +11539,7 @@
       </c>
     </row>
     <row r="154" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="47"/>
+      <c r="A154" s="52"/>
       <c r="B154" s="14" t="s">
         <v>17</v>
       </c>
@@ -11515,7 +11602,7 @@
       </c>
     </row>
     <row r="155" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="47"/>
+      <c r="A155" s="52"/>
       <c r="B155" s="14" t="s">
         <v>18</v>
       </c>
@@ -11578,7 +11665,7 @@
       </c>
     </row>
     <row r="156" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="47"/>
+      <c r="A156" s="52"/>
       <c r="B156" s="14" t="s">
         <v>19</v>
       </c>
@@ -11641,7 +11728,7 @@
       </c>
     </row>
     <row r="157" spans="1:21" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="49"/>
+      <c r="A157" s="60"/>
       <c r="B157" s="15" t="s">
         <v>20</v>
       </c>
@@ -11704,10 +11791,10 @@
       </c>
     </row>
     <row r="158" spans="1:21" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="50" t="s">
+      <c r="A158" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="51"/>
+      <c r="B158" s="62"/>
       <c r="C158" s="35">
         <v>1248536</v>
       </c>
@@ -11788,211 +11875,227 @@
       <c r="U159" s="18"/>
     </row>
     <row r="160" spans="1:21" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="44" t="s">
+      <c r="A160" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B160" s="44"/>
-      <c r="C160" s="44"/>
-      <c r="D160" s="44"/>
-      <c r="E160" s="44"/>
-      <c r="F160" s="44"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="44"/>
-      <c r="I160" s="44"/>
-      <c r="J160" s="44"/>
-      <c r="K160" s="44"/>
-      <c r="L160" s="44"/>
-      <c r="M160" s="44"/>
-      <c r="N160" s="44"/>
-      <c r="O160" s="44"/>
-      <c r="P160" s="44"/>
-      <c r="Q160" s="44"/>
-      <c r="R160" s="44"/>
-      <c r="S160" s="44"/>
-      <c r="T160" s="44"/>
+      <c r="B160" s="58"/>
+      <c r="C160" s="58"/>
+      <c r="D160" s="58"/>
+      <c r="E160" s="58"/>
+      <c r="F160" s="58"/>
+      <c r="G160" s="58"/>
+      <c r="H160" s="58"/>
+      <c r="I160" s="58"/>
+      <c r="J160" s="58"/>
+      <c r="K160" s="58"/>
+      <c r="L160" s="58"/>
+      <c r="M160" s="58"/>
+      <c r="N160" s="58"/>
+      <c r="O160" s="58"/>
+      <c r="P160" s="58"/>
+      <c r="Q160" s="58"/>
+      <c r="R160" s="58"/>
+      <c r="S160" s="58"/>
+      <c r="T160" s="58"/>
     </row>
     <row r="161" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="44"/>
-      <c r="B161" s="44"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="44"/>
-      <c r="E161" s="44"/>
-      <c r="F161" s="44"/>
-      <c r="G161" s="44"/>
-      <c r="H161" s="44"/>
-      <c r="I161" s="44"/>
-      <c r="J161" s="44"/>
-      <c r="K161" s="44"/>
-      <c r="L161" s="44"/>
-      <c r="M161" s="44"/>
-      <c r="N161" s="44"/>
-      <c r="O161" s="44"/>
-      <c r="P161" s="44"/>
-      <c r="Q161" s="44"/>
-      <c r="R161" s="44"/>
-      <c r="S161" s="44"/>
-      <c r="T161" s="44"/>
+      <c r="A161" s="58"/>
+      <c r="B161" s="58"/>
+      <c r="C161" s="58"/>
+      <c r="D161" s="58"/>
+      <c r="E161" s="58"/>
+      <c r="F161" s="58"/>
+      <c r="G161" s="58"/>
+      <c r="H161" s="58"/>
+      <c r="I161" s="58"/>
+      <c r="J161" s="58"/>
+      <c r="K161" s="58"/>
+      <c r="L161" s="58"/>
+      <c r="M161" s="58"/>
+      <c r="N161" s="58"/>
+      <c r="O161" s="58"/>
+      <c r="P161" s="58"/>
+      <c r="Q161" s="58"/>
+      <c r="R161" s="58"/>
+      <c r="S161" s="58"/>
+      <c r="T161" s="58"/>
     </row>
     <row r="162" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="44"/>
-      <c r="B162" s="44"/>
-      <c r="C162" s="44"/>
-      <c r="D162" s="44"/>
-      <c r="E162" s="44"/>
-      <c r="F162" s="44"/>
-      <c r="G162" s="44"/>
-      <c r="H162" s="44"/>
-      <c r="I162" s="44"/>
-      <c r="J162" s="44"/>
-      <c r="K162" s="44"/>
-      <c r="L162" s="44"/>
-      <c r="M162" s="44"/>
-      <c r="N162" s="44"/>
-      <c r="O162" s="44"/>
-      <c r="P162" s="44"/>
-      <c r="Q162" s="44"/>
-      <c r="R162" s="44"/>
-      <c r="S162" s="44"/>
-      <c r="T162" s="44"/>
+      <c r="A162" s="58"/>
+      <c r="B162" s="58"/>
+      <c r="C162" s="58"/>
+      <c r="D162" s="58"/>
+      <c r="E162" s="58"/>
+      <c r="F162" s="58"/>
+      <c r="G162" s="58"/>
+      <c r="H162" s="58"/>
+      <c r="I162" s="58"/>
+      <c r="J162" s="58"/>
+      <c r="K162" s="58"/>
+      <c r="L162" s="58"/>
+      <c r="M162" s="58"/>
+      <c r="N162" s="58"/>
+      <c r="O162" s="58"/>
+      <c r="P162" s="58"/>
+      <c r="Q162" s="58"/>
+      <c r="R162" s="58"/>
+      <c r="S162" s="58"/>
+      <c r="T162" s="58"/>
     </row>
     <row r="163" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="44"/>
-      <c r="B163" s="44"/>
-      <c r="C163" s="44"/>
-      <c r="D163" s="44"/>
-      <c r="E163" s="44"/>
-      <c r="F163" s="44"/>
-      <c r="G163" s="44"/>
-      <c r="H163" s="44"/>
-      <c r="I163" s="44"/>
-      <c r="J163" s="44"/>
-      <c r="K163" s="44"/>
-      <c r="L163" s="44"/>
-      <c r="M163" s="44"/>
-      <c r="N163" s="44"/>
-      <c r="O163" s="44"/>
-      <c r="P163" s="44"/>
-      <c r="Q163" s="44"/>
-      <c r="R163" s="44"/>
-      <c r="S163" s="44"/>
-      <c r="T163" s="44"/>
+      <c r="A163" s="58"/>
+      <c r="B163" s="58"/>
+      <c r="C163" s="58"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="58"/>
+      <c r="F163" s="58"/>
+      <c r="G163" s="58"/>
+      <c r="H163" s="58"/>
+      <c r="I163" s="58"/>
+      <c r="J163" s="58"/>
+      <c r="K163" s="58"/>
+      <c r="L163" s="58"/>
+      <c r="M163" s="58"/>
+      <c r="N163" s="58"/>
+      <c r="O163" s="58"/>
+      <c r="P163" s="58"/>
+      <c r="Q163" s="58"/>
+      <c r="R163" s="58"/>
+      <c r="S163" s="58"/>
+      <c r="T163" s="58"/>
     </row>
     <row r="164" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="45" t="s">
+      <c r="A164" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B164" s="45"/>
-      <c r="C164" s="45"/>
-      <c r="D164" s="45"/>
-      <c r="E164" s="45"/>
-      <c r="F164" s="45"/>
-      <c r="G164" s="45"/>
-      <c r="H164" s="45"/>
-      <c r="I164" s="45"/>
-      <c r="J164" s="45"/>
-      <c r="K164" s="45"/>
-      <c r="L164" s="45"/>
-      <c r="M164" s="45"/>
-      <c r="N164" s="45"/>
-      <c r="O164" s="45"/>
-      <c r="P164" s="45"/>
-      <c r="Q164" s="45"/>
-      <c r="R164" s="45"/>
-      <c r="S164" s="45"/>
-      <c r="T164" s="45"/>
+      <c r="B164" s="59"/>
+      <c r="C164" s="59"/>
+      <c r="D164" s="59"/>
+      <c r="E164" s="59"/>
+      <c r="F164" s="59"/>
+      <c r="G164" s="59"/>
+      <c r="H164" s="59"/>
+      <c r="I164" s="59"/>
+      <c r="J164" s="59"/>
+      <c r="K164" s="59"/>
+      <c r="L164" s="59"/>
+      <c r="M164" s="59"/>
+      <c r="N164" s="59"/>
+      <c r="O164" s="59"/>
+      <c r="P164" s="59"/>
+      <c r="Q164" s="59"/>
+      <c r="R164" s="59"/>
+      <c r="S164" s="59"/>
+      <c r="T164" s="59"/>
     </row>
     <row r="165" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="45"/>
-      <c r="B165" s="45"/>
-      <c r="C165" s="45"/>
-      <c r="D165" s="45"/>
-      <c r="E165" s="45"/>
-      <c r="F165" s="45"/>
-      <c r="G165" s="45"/>
-      <c r="H165" s="45"/>
-      <c r="I165" s="45"/>
-      <c r="J165" s="45"/>
-      <c r="K165" s="45"/>
-      <c r="L165" s="45"/>
-      <c r="M165" s="45"/>
-      <c r="N165" s="45"/>
-      <c r="O165" s="45"/>
-      <c r="P165" s="45"/>
-      <c r="Q165" s="45"/>
-      <c r="R165" s="45"/>
-      <c r="S165" s="45"/>
-      <c r="T165" s="45"/>
+      <c r="A165" s="59"/>
+      <c r="B165" s="59"/>
+      <c r="C165" s="59"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="59"/>
+      <c r="G165" s="59"/>
+      <c r="H165" s="59"/>
+      <c r="I165" s="59"/>
+      <c r="J165" s="59"/>
+      <c r="K165" s="59"/>
+      <c r="L165" s="59"/>
+      <c r="M165" s="59"/>
+      <c r="N165" s="59"/>
+      <c r="O165" s="59"/>
+      <c r="P165" s="59"/>
+      <c r="Q165" s="59"/>
+      <c r="R165" s="59"/>
+      <c r="S165" s="59"/>
+      <c r="T165" s="59"/>
     </row>
     <row r="166" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="45"/>
-      <c r="B166" s="45"/>
-      <c r="C166" s="45"/>
-      <c r="D166" s="45"/>
-      <c r="E166" s="45"/>
-      <c r="F166" s="45"/>
-      <c r="G166" s="45"/>
-      <c r="H166" s="45"/>
-      <c r="I166" s="45"/>
-      <c r="J166" s="45"/>
-      <c r="K166" s="45"/>
-      <c r="L166" s="45"/>
-      <c r="M166" s="45"/>
-      <c r="N166" s="45"/>
-      <c r="O166" s="45"/>
-      <c r="P166" s="45"/>
-      <c r="Q166" s="45"/>
-      <c r="R166" s="45"/>
-      <c r="S166" s="45"/>
-      <c r="T166" s="45"/>
+      <c r="A166" s="59"/>
+      <c r="B166" s="59"/>
+      <c r="C166" s="59"/>
+      <c r="D166" s="59"/>
+      <c r="E166" s="59"/>
+      <c r="F166" s="59"/>
+      <c r="G166" s="59"/>
+      <c r="H166" s="59"/>
+      <c r="I166" s="59"/>
+      <c r="J166" s="59"/>
+      <c r="K166" s="59"/>
+      <c r="L166" s="59"/>
+      <c r="M166" s="59"/>
+      <c r="N166" s="59"/>
+      <c r="O166" s="59"/>
+      <c r="P166" s="59"/>
+      <c r="Q166" s="59"/>
+      <c r="R166" s="59"/>
+      <c r="S166" s="59"/>
+      <c r="T166" s="59"/>
     </row>
     <row r="167" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="45" t="s">
+      <c r="A167" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B167" s="45"/>
-      <c r="C167" s="45"/>
-      <c r="D167" s="45"/>
-      <c r="E167" s="45"/>
-      <c r="F167" s="45"/>
-      <c r="G167" s="45"/>
-      <c r="H167" s="45"/>
-      <c r="I167" s="45"/>
-      <c r="J167" s="45"/>
-      <c r="K167" s="45"/>
-      <c r="L167" s="45"/>
-      <c r="M167" s="45"/>
-      <c r="N167" s="45"/>
-      <c r="O167" s="45"/>
-      <c r="P167" s="45"/>
-      <c r="Q167" s="45"/>
-      <c r="R167" s="45"/>
-      <c r="S167" s="45"/>
-      <c r="T167" s="45"/>
+      <c r="B167" s="59"/>
+      <c r="C167" s="59"/>
+      <c r="D167" s="59"/>
+      <c r="E167" s="59"/>
+      <c r="F167" s="59"/>
+      <c r="G167" s="59"/>
+      <c r="H167" s="59"/>
+      <c r="I167" s="59"/>
+      <c r="J167" s="59"/>
+      <c r="K167" s="59"/>
+      <c r="L167" s="59"/>
+      <c r="M167" s="59"/>
+      <c r="N167" s="59"/>
+      <c r="O167" s="59"/>
+      <c r="P167" s="59"/>
+      <c r="Q167" s="59"/>
+      <c r="R167" s="59"/>
+      <c r="S167" s="59"/>
+      <c r="T167" s="59"/>
     </row>
     <row r="168" spans="1:20" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="45"/>
-      <c r="B168" s="45"/>
-      <c r="C168" s="45"/>
-      <c r="D168" s="45"/>
-      <c r="E168" s="45"/>
-      <c r="F168" s="45"/>
-      <c r="G168" s="45"/>
-      <c r="H168" s="45"/>
-      <c r="I168" s="45"/>
-      <c r="J168" s="45"/>
-      <c r="K168" s="45"/>
-      <c r="L168" s="45"/>
-      <c r="M168" s="45"/>
-      <c r="N168" s="45"/>
-      <c r="O168" s="45"/>
-      <c r="P168" s="45"/>
-      <c r="Q168" s="45"/>
-      <c r="R168" s="45"/>
-      <c r="S168" s="45"/>
-      <c r="T168" s="45"/>
+      <c r="A168" s="59"/>
+      <c r="B168" s="59"/>
+      <c r="C168" s="59"/>
+      <c r="D168" s="59"/>
+      <c r="E168" s="59"/>
+      <c r="F168" s="59"/>
+      <c r="G168" s="59"/>
+      <c r="H168" s="59"/>
+      <c r="I168" s="59"/>
+      <c r="J168" s="59"/>
+      <c r="K168" s="59"/>
+      <c r="L168" s="59"/>
+      <c r="M168" s="59"/>
+      <c r="N168" s="59"/>
+      <c r="O168" s="59"/>
+      <c r="P168" s="59"/>
+      <c r="Q168" s="59"/>
+      <c r="R168" s="59"/>
+      <c r="S168" s="59"/>
+      <c r="T168" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A160:T163"/>
+    <mergeCell ref="A164:T166"/>
+    <mergeCell ref="A167:T168"/>
+    <mergeCell ref="A101:A119"/>
+    <mergeCell ref="A120:A138"/>
+    <mergeCell ref="A139:A157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A82:A100"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="A25:A43"/>
+    <mergeCell ref="A44:A62"/>
+    <mergeCell ref="A63:A81"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:K3"/>
@@ -12000,25 +12103,9 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A82:A100"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
     <mergeCell ref="T4:T5"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="A25:A43"/>
-    <mergeCell ref="A44:A62"/>
-    <mergeCell ref="A63:A81"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="R4:S4"/>
-    <mergeCell ref="A160:T163"/>
-    <mergeCell ref="A164:T166"/>
-    <mergeCell ref="A167:T168"/>
-    <mergeCell ref="A101:A119"/>
-    <mergeCell ref="A120:A138"/>
-    <mergeCell ref="A139:A157"/>
-    <mergeCell ref="A158:B158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" fitToHeight="0" orientation="landscape" r:id="rId1"/>
